--- a/Ejercicio951.xlsx
+++ b/Ejercicio951.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raul\Documents\ESCUELA\pronos\gitMAf\unidad9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14D98851-868E-4AAA-8633-D35FAE3782F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C38FC01-CAD3-4E24-9CF1-FEFC2436CB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="0" windowWidth="20430" windowHeight="11520" xr2:uid="{98FAEC28-0F3A-49ED-A335-70C86A26AC3A}"/>
   </bookViews>
@@ -36,22 +36,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Trimestre</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Año</t>
   </si>
   <si>
     <t>ventas</t>
+  </si>
+  <si>
+    <t>1980/01</t>
+  </si>
+  <si>
+    <t>1980/02</t>
+  </si>
+  <si>
+    <t>1980/03</t>
+  </si>
+  <si>
+    <t>1980/04</t>
+  </si>
+  <si>
+    <t>1981/01</t>
+  </si>
+  <si>
+    <t>1981/02</t>
+  </si>
+  <si>
+    <t>1981/03</t>
+  </si>
+  <si>
+    <t>1981/04</t>
+  </si>
+  <si>
+    <t>1982/01</t>
+  </si>
+  <si>
+    <t>1982/02</t>
+  </si>
+  <si>
+    <t>1982/03</t>
+  </si>
+  <si>
+    <t>1982/04</t>
+  </si>
+  <si>
+    <t>1983/01</t>
+  </si>
+  <si>
+    <t>1983/02</t>
+  </si>
+  <si>
+    <t>1983/03</t>
+  </si>
+  <si>
+    <t>1983/04</t>
+  </si>
+  <si>
+    <t>1984/01</t>
+  </si>
+  <si>
+    <t>1984/02</t>
+  </si>
+  <si>
+    <t>1984/03</t>
+  </si>
+  <si>
+    <t>1984/04</t>
+  </si>
+  <si>
+    <t>1985/01</t>
+  </si>
+  <si>
+    <t>1985/02</t>
+  </si>
+  <si>
+    <t>1985/03</t>
+  </si>
+  <si>
+    <t>1985/04</t>
+  </si>
+  <si>
+    <t>1986/01</t>
+  </si>
+  <si>
+    <t>1986/02</t>
+  </si>
+  <si>
+    <t>1986/03</t>
+  </si>
+  <si>
+    <t>1986/04</t>
+  </si>
+  <si>
+    <t>1987/01</t>
+  </si>
+  <si>
+    <t>1987/02</t>
+  </si>
+  <si>
+    <t>1987/03</t>
+  </si>
+  <si>
+    <t>1987/04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,16 +152,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -76,12 +180,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,381 +538,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385C63A9-CF9A-4169-8BC4-0167995FB394}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4</v>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4</v>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>5</v>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>5</v>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>5</v>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>5</v>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>6</v>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>6</v>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>6</v>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>6</v>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>7</v>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>7</v>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>7</v>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>7</v>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>8</v>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>8</v>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>8</v>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32">
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>8</v>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33">
         <v>149</v>
       </c>
     </row>
